--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value505.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value505.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.758485414684166</v>
+        <v>1.23260486125946</v>
       </c>
       <c r="B1">
-        <v>3.185564297947707</v>
+        <v>2.519661664962769</v>
       </c>
       <c r="C1">
-        <v>2.837390274030943</v>
+        <v>4.509186744689941</v>
       </c>
       <c r="D1">
-        <v>0.9494364982220244</v>
+        <v>2.492693662643433</v>
       </c>
       <c r="E1">
-        <v>0.6907539377043719</v>
+        <v>1.069980502128601</v>
       </c>
     </row>
   </sheetData>
